--- a/（サンプル）参院比例代表候補者得票順（全政党一括）落.xlsx
+++ b/（サンプル）参院比例代表候補者得票順（全政党一括）落.xlsx
@@ -13,9 +13,392 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+  <si>
+    <t>順位</t>
+  </si>
+  <si>
+    <t>政党名／候補者名</t>
+  </si>
+  <si>
+    <t>合 計</t>
+  </si>
+  <si>
+    <t>安野 貴博</t>
+  </si>
+  <si>
+    <t>本田 顕子</t>
+  </si>
+  <si>
+    <t>杉田 水脈</t>
+  </si>
+  <si>
+    <t>岸  博幸</t>
+  </si>
+  <si>
+    <t>赤池 誠章</t>
+  </si>
+  <si>
+    <t>山東 昭子</t>
+  </si>
+  <si>
+    <t>比嘉奈津美</t>
+  </si>
+  <si>
+    <t>百田 尚樹</t>
+  </si>
+  <si>
+    <t>宮崎 雅夫</t>
+  </si>
+  <si>
+    <t>中田  宏</t>
+  </si>
+  <si>
+    <t>田中 昌史</t>
+  </si>
+  <si>
+    <t>浜田  聡</t>
+  </si>
+  <si>
+    <t>繁本  護</t>
+  </si>
+  <si>
+    <t>長尾  敬</t>
+  </si>
+  <si>
+    <t>斉藤 正行</t>
+  </si>
+  <si>
+    <t>白  真勲</t>
+  </si>
+  <si>
+    <t>中田●●●</t>
+  </si>
+  <si>
+    <t>石川 大我</t>
+  </si>
+  <si>
+    <t>太田 真平</t>
+  </si>
+  <si>
+    <t>江畑弥八郎</t>
+  </si>
+  <si>
+    <t>越智 紀江</t>
+  </si>
+  <si>
+    <t>徳田 稚子</t>
+  </si>
+  <si>
+    <t>山城 博治</t>
+  </si>
+  <si>
+    <t>浦野  仁</t>
+  </si>
+  <si>
+    <t>安藤  裕</t>
+  </si>
+  <si>
+    <t>村山 祥栄</t>
+  </si>
+  <si>
+    <t>赤嶺  昇</t>
+  </si>
+  <si>
+    <t>宮田 崇生</t>
+  </si>
+  <si>
+    <t>沓沢 亮治</t>
+  </si>
+  <si>
+    <t>畦元 将吾</t>
+  </si>
+  <si>
+    <t>北村 晴男</t>
+  </si>
+  <si>
+    <t>阿部 恭久</t>
+  </si>
+  <si>
+    <t>山口 和之</t>
+  </si>
+  <si>
+    <t>古山 葉子</t>
+  </si>
+  <si>
+    <t>原谷 那美</t>
+  </si>
+  <si>
+    <t>平原 麗子</t>
+  </si>
+  <si>
+    <t>渡辺 雅行</t>
+  </si>
+  <si>
+    <t>川 裕一郎</t>
+  </si>
+  <si>
+    <t>岩本 麻奈</t>
+  </si>
+  <si>
+    <t>後藤 翔太</t>
+  </si>
+  <si>
+    <t>柴田  巧</t>
+  </si>
+  <si>
+    <t>塩田 博昭</t>
+  </si>
+  <si>
+    <t>宜保 晴毅</t>
+  </si>
+  <si>
+    <t>藤原 宏宣</t>
+  </si>
+  <si>
+    <t>花岡  蔚</t>
+  </si>
+  <si>
+    <t>高山 聡史</t>
+  </si>
+  <si>
+    <t>南原 竜樹</t>
+  </si>
+  <si>
+    <t>神戸 輝明</t>
+  </si>
+  <si>
+    <t>畠山 和也</t>
+  </si>
+  <si>
+    <t>伊藤 辰夫</t>
+  </si>
+  <si>
+    <t>吉野 敏明</t>
+  </si>
+  <si>
+    <t>川崎  稔</t>
+  </si>
+  <si>
+    <t>荒巻 豊志</t>
+  </si>
+  <si>
+    <t>白川 容子</t>
+  </si>
+  <si>
+    <t>横山 春紀</t>
+  </si>
+  <si>
+    <t>ラサー●●</t>
+  </si>
+  <si>
+    <t>甲斐 正康</t>
+  </si>
+  <si>
+    <t>福永 活也</t>
+  </si>
+  <si>
+    <t>重松 貴美</t>
+  </si>
+  <si>
+    <t>ミサオ●●</t>
+  </si>
+  <si>
+    <t>藤村 晃子</t>
+  </si>
+  <si>
+    <t>藤田  誠</t>
+  </si>
+  <si>
+    <t>須田英太郎</t>
+  </si>
+  <si>
+    <t>斉藤 里恵</t>
+  </si>
+  <si>
+    <t>久保 優太</t>
+  </si>
+  <si>
+    <t>大椿 裕子</t>
+  </si>
+  <si>
+    <t>高橋 次郎</t>
+  </si>
+  <si>
+    <t>荒神 享佑</t>
+  </si>
+  <si>
+    <t>藤井 信吾</t>
+  </si>
+  <si>
+    <t>水島 春香</t>
+  </si>
+  <si>
+    <t>中北 京子</t>
+  </si>
+  <si>
+    <t>村岡 正敏</t>
+  </si>
+  <si>
+    <t>木原功仁哉</t>
+  </si>
+  <si>
+    <t>河合  綾</t>
+  </si>
+  <si>
+    <t>竹原 浩子</t>
+  </si>
+  <si>
+    <t>羽場 正文</t>
+  </si>
+  <si>
+    <t>藤井 伸城</t>
+  </si>
+  <si>
+    <t>竹島 正人</t>
+  </si>
+  <si>
+    <t>大西 恒樹</t>
+  </si>
+  <si>
+    <t>城戸 佳織</t>
+  </si>
+  <si>
+    <t>安達 悠司</t>
+  </si>
+  <si>
+    <t>小林  学</t>
+  </si>
+  <si>
+    <t>梅村みずほ</t>
+  </si>
+  <si>
+    <t>大谷由里子</t>
+  </si>
+  <si>
+    <t>金井 亨太</t>
+  </si>
+  <si>
+    <t>小野 貴樹</t>
+  </si>
+  <si>
+    <t>大津 浩子</t>
+  </si>
+  <si>
+    <t>岩本 義孝</t>
+  </si>
+  <si>
+    <t>小山田友子</t>
+  </si>
+  <si>
+    <t>松崎 真琴</t>
+  </si>
+  <si>
+    <t>住寄 聡美</t>
+  </si>
+  <si>
+    <t>大谷 佳弘</t>
+  </si>
+  <si>
+    <t>佐々木喜一</t>
+  </si>
+  <si>
+    <t>木村 英子</t>
+  </si>
+  <si>
+    <t>武田 祐樹</t>
+  </si>
+  <si>
+    <t>赤石 博子</t>
+  </si>
+  <si>
+    <t>有本  香</t>
+  </si>
+  <si>
+    <t>蓮池  透</t>
+  </si>
+  <si>
+    <t>西野 克也</t>
+  </si>
+  <si>
+    <t>山中  泉</t>
+  </si>
+  <si>
+    <t>宮沢  靖</t>
+  </si>
+  <si>
+    <t>寺田 博英</t>
+  </si>
+  <si>
+    <t>山田 吉彦</t>
+  </si>
+  <si>
+    <t>川崎 貴浩</t>
+  </si>
+  <si>
+    <t>矢野由紀子</t>
+  </si>
+  <si>
+    <t>宮窪 大作</t>
+  </si>
+  <si>
+    <t>水野 純也</t>
+  </si>
+  <si>
+    <t>奥田芙美代</t>
+  </si>
+  <si>
+    <t>塩崎  稔</t>
+  </si>
+  <si>
+    <t>辻村 千尋</t>
+  </si>
+  <si>
+    <t>二藤部冬馬</t>
+  </si>
+  <si>
+    <t>梅原 克彦</t>
+  </si>
+  <si>
+    <t>木村 正弘</t>
+  </si>
+  <si>
+    <t>吉田幸一郎</t>
+  </si>
+  <si>
+    <t>藤本 真人</t>
+  </si>
+  <si>
+    <t>福島 一恵</t>
+  </si>
+  <si>
+    <t>鈴木 弘一</t>
+  </si>
+  <si>
+    <t>西山 頌秀</t>
+  </si>
+  <si>
+    <t>大岸 真弓</t>
+  </si>
+  <si>
+    <t>平 あや子</t>
+  </si>
+  <si>
+    <t>山田みのり</t>
+  </si>
+  <si>
+    <t>伊藤 和子</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +406,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +437,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +763,1371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>184276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>136535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>123570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>122421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>105907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>104137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>95315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>90182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>89101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>88455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>82441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>74401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>64088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>61442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>61293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>52</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>60528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>58054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4">
+        <v>57727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>55240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>55068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>55019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4">
+        <v>53748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>65</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4">
+        <v>42529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>42333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>39968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>70</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4">
+        <v>36956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>33840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4">
+        <v>33458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>33395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4">
+        <v>76</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4">
+        <v>32693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>77</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>31923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4">
+        <v>31708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>31659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4">
+        <v>80</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4">
+        <v>31488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>31441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4">
+        <v>82</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>30657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>83</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2">
+        <v>30497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4">
+        <v>84</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4">
+        <v>29589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>85</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <v>29461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4">
+        <v>86</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="4">
+        <v>29452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>88</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2">
+        <v>27939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
+        <v>89</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="4">
+        <v>27519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4">
+        <v>91</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="4">
+        <v>26778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2">
+        <v>26471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4">
+        <v>93</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="4">
+        <v>25875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>95</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2">
+        <v>24990</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
+        <v>96</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="4">
+        <v>24410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>97</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
+        <v>24389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4">
+        <v>98</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4">
+        <v>24241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>99</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4">
+        <v>100</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4">
+        <v>24076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>22809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4">
+        <v>103</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="4">
+        <v>22326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>104</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2">
+        <v>21728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4">
+        <v>105</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="4">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>106</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="2">
+        <v>20404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4">
+        <v>107</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="4">
+        <v>19838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>108</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="2">
+        <v>19833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4">
+        <v>109</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="4">
+        <v>18742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>110</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2">
+        <v>17753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4">
+        <v>111</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="4">
+        <v>17114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>112</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2">
+        <v>16990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4">
+        <v>113</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="4">
+        <v>16712</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>114</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="2">
+        <v>16378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4">
+        <v>115</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="4">
+        <v>16360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>116</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4">
+        <v>117</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="4">
+        <v>16253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>118</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="2">
+        <v>16225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4">
+        <v>119</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="4">
+        <v>16194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>120</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="2">
+        <v>16188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4">
+        <v>121</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="4">
+        <v>16163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>122</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="2">
+        <v>16111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4">
+        <v>123</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="4">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>124</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="2">
+        <v>15955</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4">
+        <v>125</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="4">
+        <v>15891</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>126</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2">
+        <v>15847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4">
+        <v>127</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="4">
+        <v>15392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>128</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2">
+        <v>15329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4">
+        <v>129</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="4">
+        <v>15130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>130</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="2">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4">
+        <v>131</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="4">
+        <v>14588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>132</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="2">
+        <v>14527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4">
+        <v>133</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="4">
+        <v>13727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>134</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="2">
+        <v>13559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4">
+        <v>135</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="4">
+        <v>13208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>136</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2">
+        <v>12647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4">
+        <v>137</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="4">
+        <v>12632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>138</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="2">
+        <v>12614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="4">
+        <v>139</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="4">
+        <v>12508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>140</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="4">
+        <v>141</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="4">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>142</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="2">
+        <v>12220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4">
+        <v>143</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="4">
+        <v>11732</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>144</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="2">
+        <v>11708</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4">
+        <v>145</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="4">
+        <v>11169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>146</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="2">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4">
+        <v>147</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="4">
+        <v>10931</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>148</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4">
+        <v>149</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="4">
+        <v>10427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>150</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="4">
+        <v>151</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="4">
+        <v>9870</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>152</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2">
+        <v>9772</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="4">
+        <v>153</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="4">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>154</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="2">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="4">
+        <v>155</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="4">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>156</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="4">
+        <v>157</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="4">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>158</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="2">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="4">
+        <v>159</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="4">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>160</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="4">
+        <v>161</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="4">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>164</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="4">
+        <v>165</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>166</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="4">
+        <v>167</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>168</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="4">
+        <v>169</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>171</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="4">
+        <v>172</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="4">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>